--- a/data/trans_dic/P42C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Estudios-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1059534625210812</v>
+        <v>0.1057768300976049</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02294038753469967</v>
+        <v>0.02334970414318969</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04573145790812738</v>
+        <v>0.04493077069824482</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1483867045850905</v>
+        <v>0.150764982565269</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05530211366554814</v>
+        <v>0.05545581308697786</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0834050369776313</v>
+        <v>0.08285390916926874</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.1421877117024448</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2254157901974309</v>
+        <v>0.2254157901974308</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2312691968240268</v>
+        <v>0.2285910043873526</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1237547059071438</v>
+        <v>0.1253385667483018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2053977803081486</v>
+        <v>0.2025486574544952</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.279472267011236</v>
+        <v>0.2807030587720524</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1595785484459046</v>
+        <v>0.1620871807910128</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2482439935378193</v>
+        <v>0.2483571817684083</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4043557829172067</v>
+        <v>0.3948275636563444</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3237278543018394</v>
+        <v>0.328314764203027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4368696723321299</v>
+        <v>0.4378686971930546</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5095826861446613</v>
+        <v>0.5076743212373682</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.412634749777021</v>
+        <v>0.411593073159512</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5183845466008394</v>
+        <v>0.527093972149965</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2224512315053772</v>
+        <v>0.2216117995007549</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1402839243389849</v>
+        <v>0.1399703091818253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2256684610228326</v>
+        <v>0.228219096328388</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2578464427649871</v>
+        <v>0.2563537179142041</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1689522001071929</v>
+        <v>0.1686239998421502</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2590654722863626</v>
+        <v>0.2596089493678153</v>
       </c>
     </row>
     <row r="16">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>102897</v>
+        <v>102725</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15888</v>
+        <v>16171</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21354</v>
+        <v>20980</v>
       </c>
     </row>
     <row r="7">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>144106</v>
+        <v>146416</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38301</v>
+        <v>38407</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38946</v>
+        <v>38689</v>
       </c>
     </row>
     <row r="8">
@@ -995,13 +995,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>315168</v>
+        <v>311518</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>197006</v>
+        <v>199527</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>244881</v>
+        <v>241484</v>
       </c>
     </row>
     <row r="11">
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>380858</v>
+        <v>382535</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>254034</v>
+        <v>258028</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>295963</v>
+        <v>296098</v>
       </c>
     </row>
     <row r="12">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>163011</v>
+        <v>159170</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>156008</v>
+        <v>158218</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>195435</v>
+        <v>195882</v>
       </c>
     </row>
     <row r="15">
@@ -1084,13 +1084,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>205432</v>
+        <v>204663</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>198853</v>
+        <v>198351</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>231901</v>
+        <v>235797</v>
       </c>
     </row>
     <row r="16">
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>608863</v>
+        <v>606566</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>388080</v>
+        <v>387212</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>475377</v>
+        <v>480750</v>
       </c>
     </row>
     <row r="19">
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>705742</v>
+        <v>701657</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>467387</v>
+        <v>466479</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>545729</v>
+        <v>546874</v>
       </c>
     </row>
     <row r="20">
